--- a/public/reports/consolidated_orders_23_Mar_2024.xlsx
+++ b/public/reports/consolidated_orders_23_Mar_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t xml:space="preserve">INVENTORY LIST </t>
   </si>
@@ -47,13 +47,10 @@
     <t>QUANTITY AVAILABLE</t>
   </si>
   <si>
-    <t>LAB2034</t>
-  </si>
-  <si>
-    <t>BDH 150ml bottle</t>
-  </si>
-  <si>
-    <t>Ht6</t>
+    <t>CLN1002</t>
+  </si>
+  <si>
+    <t>"Giving Sets Blood Solution</t>
   </si>
   <si>
     <t>no</t>
@@ -62,64 +59,58 @@
     <t>cold chain</t>
   </si>
   <si>
-    <t>LAB2445</t>
-  </si>
-  <si>
-    <t>Costar Assay Plate 96 Well Flat Bottom</t>
-  </si>
-  <si>
-    <t>TK03</t>
-  </si>
-  <si>
-    <t>LAB2807</t>
-  </si>
-  <si>
-    <t>Plain Skirted Tubes 0.5ml</t>
-  </si>
-  <si>
-    <t>SK0123</t>
-  </si>
-  <si>
-    <t>SK0124</t>
-  </si>
-  <si>
-    <t>MLW01</t>
-  </si>
-  <si>
-    <t>LAB2738</t>
-  </si>
-  <si>
-    <t>Serogical Pipette (50ml)</t>
-  </si>
-  <si>
-    <t>DEERRE</t>
-  </si>
-  <si>
-    <t>LAB2179</t>
-  </si>
-  <si>
-    <t>Oil Immersion</t>
-  </si>
-  <si>
-    <t>trz2</t>
-  </si>
-  <si>
-    <t>LAB2491</t>
-  </si>
-  <si>
-    <t>ISE Na Selective check</t>
-  </si>
-  <si>
-    <t>SG0909</t>
-  </si>
-  <si>
-    <t>LAB2789</t>
-  </si>
-  <si>
-    <t>Mag Min Kit</t>
-  </si>
-  <si>
-    <t>PO98f</t>
+    <t>CLN1038</t>
+  </si>
+  <si>
+    <t>Alcohol 99.9% of 5 Litres</t>
+  </si>
+  <si>
+    <t>DBI-CRTA200</t>
+  </si>
+  <si>
+    <t>CLN1059</t>
+  </si>
+  <si>
+    <t>Blood Lancets 23G (100 pc)</t>
+  </si>
+  <si>
+    <t>dghg</t>
+  </si>
+  <si>
+    <t>CLN1001</t>
+  </si>
+  <si>
+    <t>First Response Malaria Antigen - Pack of 25</t>
+  </si>
+  <si>
+    <t>CLN1133</t>
+  </si>
+  <si>
+    <t>Gauze swabs (100 pc)</t>
+  </si>
+  <si>
+    <t>CLN1404</t>
+  </si>
+  <si>
+    <t>Syringe 3ml (pack of 100)</t>
+  </si>
+  <si>
+    <t>MWKA</t>
+  </si>
+  <si>
+    <t>XYZU</t>
+  </si>
+  <si>
+    <t>CLN1004</t>
+  </si>
+  <si>
+    <t>Syringes 10ml-Pack of 50</t>
+  </si>
+  <si>
+    <t>STA3041</t>
+  </si>
+  <si>
+    <t>Toner HP 103A (Black)</t>
   </si>
 </sst>
 </file>
@@ -215,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Exported" ref="A10:I30" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A10:I30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Exported" ref="A10:I21" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A10:I21"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ULN"/>
     <tableColumn id="2" name="CODE"/>
@@ -522,10 +513,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:I29"/>
+      <selection activeCell="A20" sqref="A20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="18.9954" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,375 +572,186 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1">
-        <v>58585</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
